--- a/Test_Practice/amazon_scrapping/FinalRecords.xlsx
+++ b/Test_Practice/amazon_scrapping/FinalRecords.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,24 +436,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SAMSUNG Galaxy Z Fold 4 Cell Phone, Factory Unlocked Android Smartphone, 256GB, Flex Mode, Hands Free Video, Multi Window View, Foldable Display, S Pen Compatible, US Version, Phantom Black</t>
+          <t>SAMSUNG Galaxy S22 Cell Phone, Factory Unlocked Android Smartphone, 128GB, 8K Camera &amp; Video, Night Mode, Brightest Display Screen, 50MP Photo Resolution, Long Battery Life, US Version, Pink Gold</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1,599</t>
+          <t>749</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SAMSUNG Galaxy Z Flip 4 Cell Phone, Factory Unlocked Android Smartphone, 256GB, Flex Mode, Hands Free Camera, Compact, Foldable Design, Informative Cover Screen, US Version, Bora Purple</t>
+          <t>SAMSUNG Galaxy Z Fold 4 Cell Phone, Factory Unlocked Android Smartphone, 256GB, Flex Mode, Hands Free Video, Multi Window View, Foldable Display, S Pen Compatible, US Version, Beige</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>959</t>
+          <t>1,599</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>449</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>599</t>
         </is>
       </c>
     </row>
@@ -501,19 +501,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>158</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SAMSUNG Galaxy A13 5G Cell Phone, Factory Unlocked Android Smartphone, 64GB, Triple Lens Camera, Infinity Display Screen, Long Battery Life, Expandable Storage, US Version, Black</t>
+          <t>SAMSUNG Galaxy Z Flip 4 Cell Phone, Factory Unlocked Android Smartphone, 256GB, Flex Mode, Hands Free Camera, Compact, Foldable Design, Informative Cover Screen, US Version, Blue</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>959</t>
         </is>
       </c>
     </row>
@@ -525,86 +525,86 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1,097</t>
+          <t>249</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SAMSUNG Galaxy S21 Ultra 5G Factory Unlocked Android Cell Phone 128GB US Version Smartphone Pro-Grade Camera 8K Video 108MP High Res, Phantom Silver</t>
+          <t>SAMSUNG Galaxy A13 5G Cell Phone, Factory Unlocked Android Smartphone, 64GB, Triple Lens Camera, Infinity Display Screen, Long Battery Life, Expandable Storage, US Version, Black</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>959</t>
+          <t>1,097</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SAMSUNG Galaxy Z Flip 4 Cell Phone, Factory Unlocked Android Smartphone, 256GB, Flex Mode, Hands Free Camera, Compact, Foldable Design, Informative Cover Screen, US Version, Bora Purple</t>
+          <t>SAMSUNG Galaxy S21 Ultra 5G Factory Unlocked Android Cell Phone 128GB US Version Smartphone Pro-Grade Camera 8K Video 108MP High Res, Phantom Silver</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>798</t>
+          <t>959</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S21 5G | Factory Unlocked Android Cell Phone | US Version 5G Smartphone | Pro-Grade Camera, 8K Video, 64MP High Res | 128GB, Phantom Violet (SM-G991UZVAXAA)</t>
+          <t>SAMSUNG Galaxy Z Flip 4 Cell Phone, Factory Unlocked Android Smartphone, 256GB, Flex Mode, Hands Free Camera, Compact, Foldable Design, Informative Cover Screen, US Version, Bora Purple</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>799</t>
+          <t>599</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SAMSUNG Galaxy S22+ Cell Phone, Factory Unlocked Android Smartphone, 128GB, 8K Camera &amp; Video, Brightest Display Screen, Long Battery Life, Fast 4nm Processor, US Version, Phantom Black</t>
+          <t>SAMSUNG Galaxy S21 FE 5G Cell Phone, Factory Unlocked Android Smartphone, 128GB, 120Hz Display Screen, Pro Grade Camera, All Day Intelligent Battery, US Version, Graphite</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>799</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SAMSUNG Galaxy A23 5G A Series Cell Phone, Factory Unlocked Android Smartphone, 64GB, Wide Lens Camera, 6.6” Infinite Display Screen, Long Battery Life, US Version, 2022, Black</t>
+          <t>Samsung Galaxy S21 5G | Factory Unlocked Android Cell Phone | US Version 5G Smartphone | Pro-Grade Camera, 8K Video, 64MP High Res | 128GB, Phantom Violet (SM-G991UZVAXAA)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1,499</t>
+          <t>299</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S10, 128GB, Prism Black - Unlocked (Renewed Premium)</t>
+          <t>SAMSUNG Galaxy A23 5G A Series Cell Phone, Factory Unlocked Android Smartphone, 64GB, Wide Lens Camera, 6.6” Infinite Display Screen, Long Battery Life, US Version, 2022, Black</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>349</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SAMSUNG Galaxy Z Fold 3 5G Cell Phone, Factory Unlocked 2-in-1 Android Smartphone Tablet, 256GB, 120Hz, Foldable Dual Screen, Under Display Camera, US Version, Phantom Black</t>
+          <t>Samsung Galaxy S10, 128GB, Prism Black - Unlocked (Renewed Premium)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -616,24 +616,72 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S10e, 128GB, Prism Black - Unlocked (Renewed Premium)</t>
+          <t>SAMSUNG Galaxy Z Fold 4 Cell Phone, Factory Unlocked Android Smartphone, 256GB, Flex Mode, Hands Free Video, Multi Window View, Foldable Display, S Pen Compatible, US Version, Beige</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>849</t>
+          <t>599</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SAMSUNG Galaxy Z Fold 4 Cell Phone, Factory Unlocked Android Smartphone, 256GB, Flex Mode, Hands Free Video, Multi Window View, Foldable Display, S Pen Compatible, US Version, Beige</t>
+          <t>Simple Mobile SAMSUNG Galaxy S10 Lite 4G LTE Prepaid Smartphone (Locked) - Black - 128GB - Sim Card Included - GSM (SMSAG770U1GP5)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>299</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Samsung Galaxy S10e, 128GB, Prism Black - Unlocked (Renewed Premium)</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1,449</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>SAMSUNG Galaxy Z Fold 3 5G Cell Phone, Factory Unlocked 2-in-1 Android Smartphone Tablet, 256GB, 120Hz, Foldable Dual Screen, Under Display Camera, US Version, Phantom Black</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>849</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>SAMSUNG Galaxy Z Flip 3 5G Cell Phone, Factory Unlocked Android Smartphone, 128GB, Flex Mode, Super Steady Camera, Ultra Compact, US Version, Phantom Black</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>599</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Samsung Galaxy Note 10+, 256GB, Aura Black - Fully Unlocked (Renewed Premium)</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>425</t>
         </is>
       </c>
     </row>
